--- a/build/classes/CSV_Files/Instruments.xlsx
+++ b/build/classes/CSV_Files/Instruments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Classes\Year2\Emerging Programming Platforms\Coursework\Emerging-CW\src\CSV_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subriti\OneDrive\Desktop\Emerging_Coursework\Emerging-CW\src\CSV_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACCB2A6-EADB-4AA3-9A4B-0C4B988E2CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9218993A-D29B-4D2A-885A-111A14EBF9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{27291F81-662D-476F-BCD1-355C38EF670D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{27291F81-662D-476F-BCD1-355C38EF670D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +64,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,14 +108,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404F8244-907F-4CA6-B4ED-5552ED934E92}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,24 +463,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
